--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>S.No</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>LN5</t>
+  </si>
+  <si>
+    <t>A1B2Z1</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="addCustomerTest" sheetId="1" r:id="rId2"/>
+    <sheet name="openCustomerTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>S.No</t>
   </si>
@@ -67,6 +67,51 @@
   </si>
   <si>
     <t>A1B2Z1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FN1 LN1</t>
+  </si>
+  <si>
+    <t>FN2 LN2</t>
+  </si>
+  <si>
+    <t>FN3 LN3</t>
+  </si>
+  <si>
+    <t>FN4 LN4</t>
+  </si>
+  <si>
+    <t>FN5 LN5</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenCustomerTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -405,10 +450,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,26 +603,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>